--- a/examples/sample-2_modified.xlsx
+++ b/examples/sample-2_modified.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dfosa\AppData\Local\Temp\tmpissk_ztl\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/private/var/folders/vc/09dpw1hs5d7bny6smj9ghhrm0000gn/T/tmp5xuall5i/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A156E881-D18F-4675-AAB1-82EF2BE55D15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E95B9B84-4CEF-774C-9C8E-8445CFE28A3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="23260" windowHeight="12460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sheet_1" sheetId="1" r:id="rId1"/>
@@ -453,14 +453,14 @@
       <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="9.69921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -471,7 +471,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>3</v>
       </c>
@@ -479,7 +479,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>4</v>
       </c>
@@ -487,7 +487,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>5</v>
       </c>
@@ -512,14 +512,14 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="9.69921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -530,7 +530,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>7</v>
       </c>
@@ -538,7 +538,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>8</v>
       </c>
@@ -546,7 +546,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>9</v>
       </c>

--- a/examples/sample-2_modified.xlsx
+++ b/examples/sample-2_modified.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/private/var/folders/vc/09dpw1hs5d7bny6smj9ghhrm0000gn/T/tmp5xuall5i/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/private/var/folders/vc/09dpw1hs5d7bny6smj9ghhrm0000gn/T/tmp2s1xwnn3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E95B9B84-4CEF-774C-9C8E-8445CFE28A3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40AEF4C9-0B28-814B-95A8-75DD7AC899AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="23260" windowHeight="12460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="23260" windowHeight="12460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sheet_1" sheetId="1" r:id="rId1"/>

--- a/examples/sample-2_modified.xlsx
+++ b/examples/sample-2_modified.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/private/var/folders/vc/09dpw1hs5d7bny6smj9ghhrm0000gn/T/tmp2s1xwnn3/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/private/var/folders/vc/09dpw1hs5d7bny6smj9ghhrm0000gn/T/tmp2pxfymm0/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40AEF4C9-0B28-814B-95A8-75DD7AC899AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0167701-CB1D-5E42-8D82-68A679199AD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="23260" windowHeight="12460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/examples/sample-2_modified.xlsx
+++ b/examples/sample-2_modified.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/private/var/folders/vc/09dpw1hs5d7bny6smj9ghhrm0000gn/T/tmp2pxfymm0/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/private/var/folders/vc/09dpw1hs5d7bny6smj9ghhrm0000gn/T/tmpmu1l_7ot/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0167701-CB1D-5E42-8D82-68A679199AD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45E08AC2-C429-CE4E-B017-3D3F924CF8AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="23260" windowHeight="12460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/examples/sample-2_modified.xlsx
+++ b/examples/sample-2_modified.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/private/var/folders/vc/09dpw1hs5d7bny6smj9ghhrm0000gn/T/tmpmu1l_7ot/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/private/var/folders/vc/09dpw1hs5d7bny6smj9ghhrm0000gn/T/tmpbmkh5esi/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45E08AC2-C429-CE4E-B017-3D3F924CF8AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD6F58A7-7EAA-9B4F-A4C3-F32D55EEBFDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="23260" windowHeight="12460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/examples/sample-2_modified.xlsx
+++ b/examples/sample-2_modified.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/private/var/folders/vc/09dpw1hs5d7bny6smj9ghhrm0000gn/T/tmpbmkh5esi/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/private/var/folders/vc/09dpw1hs5d7bny6smj9ghhrm0000gn/T/tmparcvw23o/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD6F58A7-7EAA-9B4F-A4C3-F32D55EEBFDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79DA9EF0-E4B9-A84D-A484-6F06996C6149}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="23260" windowHeight="12460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/examples/sample-2_modified.xlsx
+++ b/examples/sample-2_modified.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/private/var/folders/vc/09dpw1hs5d7bny6smj9ghhrm0000gn/T/tmparcvw23o/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/private/var/folders/vc/09dpw1hs5d7bny6smj9ghhrm0000gn/T/tmp8w4zf96t/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79DA9EF0-E4B9-A84D-A484-6F06996C6149}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FE8502E-4672-0D40-A964-ED048DE3E544}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="23260" windowHeight="12460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
